--- a/code_generate_figures/save_data/Heatmap.xlsx
+++ b/code_generate_figures/save_data/Heatmap.xlsx
@@ -56,39 +56,39 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
+    <t xml:space="preserve">DEP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEqMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">limma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
     <t xml:space="preserve">proDA</t>
   </si>
   <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">limma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEqMS</t>
-  </si>
-  <si>
     <t xml:space="preserve">5</t>
   </si>
   <si>
+    <t xml:space="preserve">ROTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
     <t xml:space="preserve">SAM</t>
   </si>
   <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROTS</t>
-  </si>
-  <si>
     <t xml:space="preserve">7</t>
   </si>
   <si>
@@ -101,12 +101,12 @@
     <t xml:space="preserve">ANOVA</t>
   </si>
   <si>
+    <t xml:space="preserve">edgeR</t>
+  </si>
+  <si>
     <t xml:space="preserve">plgem</t>
   </si>
   <si>
-    <t xml:space="preserve">edgeR</t>
-  </si>
-  <si>
     <t xml:space="preserve">beta_binomial</t>
   </si>
   <si>
@@ -116,40 +116,40 @@
     <t xml:space="preserve">missForest</t>
   </si>
   <si>
+    <t xml:space="preserve">none</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nbavg</t>
+  </si>
+  <si>
     <t xml:space="preserve">QRILC</t>
   </si>
   <si>
-    <t xml:space="preserve">none</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nbavg</t>
+    <t xml:space="preserve">GMS</t>
   </si>
   <si>
     <t xml:space="preserve">MinProb</t>
   </si>
   <si>
-    <t xml:space="preserve">GMS</t>
+    <t xml:space="preserve">Impseq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impseqrob</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">knn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
   </si>
   <si>
     <t xml:space="preserve">MinDet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impseq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">knn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impseqrob</t>
   </si>
   <si>
     <t xml:space="preserve">12</t>
@@ -656,28 +656,28 @@
         <v>11</v>
       </c>
       <c r="C2" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="F2" t="n">
         <v>3.2</v>
       </c>
-      <c r="D2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F2" t="n">
-        <v>3.8</v>
-      </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="H2" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="I2" t="n">
-        <v>3.53333333333333</v>
+        <v>3.33333333333333</v>
       </c>
       <c r="J2" t="n">
-        <v>89.692018985748</v>
+        <v>1.5161919593811</v>
       </c>
     </row>
     <row r="3">
@@ -688,28 +688,18 @@
         <v>13</v>
       </c>
       <c r="C3" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="D3" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1.8</v>
-      </c>
+        <v>3.2</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
       <c r="J3" t="n">
-        <v>0.388868093490601</v>
+        <v>0.728566884994507</v>
       </c>
     </row>
     <row r="4">
@@ -720,28 +710,28 @@
         <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>4.6</v>
+        <v>2.8</v>
       </c>
       <c r="D4" t="n">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>4.2</v>
+        <v>1.6</v>
       </c>
       <c r="F4" t="n">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="G4" t="n">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="I4" t="n">
-        <v>3.9</v>
+        <v>2.23333333333333</v>
       </c>
       <c r="J4" t="n">
-        <v>1.5161919593811</v>
+        <v>0.388868093490601</v>
       </c>
     </row>
     <row r="5">
@@ -752,18 +742,28 @@
         <v>17</v>
       </c>
       <c r="C5" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
+        <v>5.2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4.06666666666667</v>
+      </c>
       <c r="J5" t="n">
-        <v>0.728566884994507</v>
+        <v>89.692018985748</v>
       </c>
     </row>
     <row r="6">
@@ -774,28 +774,28 @@
         <v>19</v>
       </c>
       <c r="C6" t="n">
-        <v>5.8</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="E6" t="n">
-        <v>5.8</v>
+        <v>3.6</v>
       </c>
       <c r="F6" t="n">
-        <v>5.8</v>
+        <v>3.6</v>
       </c>
       <c r="G6" t="n">
-        <v>5.6</v>
+        <v>1.8</v>
       </c>
       <c r="H6" t="n">
-        <v>5.6</v>
+        <v>1.2</v>
       </c>
       <c r="I6" t="n">
-        <v>5.76666666666667</v>
+        <v>2.56666666666667</v>
       </c>
       <c r="J6" t="n">
-        <v>1.1707329750061</v>
+        <v>22.8632838726044</v>
       </c>
     </row>
     <row r="7">
@@ -806,28 +806,28 @@
         <v>21</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>6.6</v>
       </c>
       <c r="D7" t="n">
-        <v>2.2</v>
+        <v>6.6</v>
       </c>
       <c r="E7" t="n">
-        <v>3.6</v>
+        <v>5.8</v>
       </c>
       <c r="F7" t="n">
-        <v>3.6</v>
+        <v>5.8</v>
       </c>
       <c r="G7" t="n">
-        <v>1.8</v>
+        <v>5.6</v>
       </c>
       <c r="H7" t="n">
-        <v>1.6</v>
+        <v>5.6</v>
       </c>
       <c r="I7" t="n">
-        <v>2.63333333333333</v>
+        <v>6</v>
       </c>
       <c r="J7" t="n">
-        <v>22.8632838726044</v>
+        <v>1.1707329750061</v>
       </c>
     </row>
     <row r="8">
@@ -838,7 +838,7 @@
         <v>23</v>
       </c>
       <c r="C8" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="D8" t="n">
         <v>7</v>
@@ -856,7 +856,7 @@
         <v>6</v>
       </c>
       <c r="I8" t="n">
-        <v>5.96666666666667</v>
+        <v>6</v>
       </c>
       <c r="J8" t="n">
         <v>9.66490912437439</v>
@@ -870,7 +870,7 @@
         <v>25</v>
       </c>
       <c r="C9" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="D9" t="n">
         <v>6.2</v>
@@ -888,7 +888,7 @@
         <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>5.53333333333333</v>
+        <v>5.5</v>
       </c>
       <c r="J9" t="n">
         <v>0.395153045654297</v>
@@ -952,7 +952,7 @@
         <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2"/>
     </row>
@@ -974,7 +974,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3"/>
     </row>
@@ -986,7 +986,7 @@
         <v>82</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>3</v>
@@ -1138,22 +1138,22 @@
         <v>11</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
         <v>3</v>
@@ -1171,23 +1171,13 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
       <c r="J3"/>
     </row>
     <row r="4">
@@ -1198,25 +1188,25 @@
         <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J4"/>
     </row>
@@ -1228,16 +1218,26 @@
         <v>17</v>
       </c>
       <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
-        <v>5</v>
-      </c>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
+      <c r="G5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4</v>
+      </c>
       <c r="J5"/>
     </row>
     <row r="6">
@@ -1248,25 +1248,25 @@
         <v>19</v>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F6" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J6"/>
     </row>
@@ -1278,25 +1278,25 @@
         <v>21</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J7"/>
     </row>
@@ -1326,7 +1326,7 @@
         <v>7</v>
       </c>
       <c r="I8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J8"/>
     </row>
@@ -1338,10 +1338,10 @@
         <v>25</v>
       </c>
       <c r="C9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1402,16 +1402,16 @@
         <v>26</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="F2" t="n">
-        <v>6.92411208152771</v>
+        <v>2.2489538192749</v>
       </c>
     </row>
     <row r="3">
@@ -1422,16 +1422,16 @@
         <v>27</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="F3" t="n">
-        <v>2.2489538192749</v>
+        <v>6.92411208152771</v>
       </c>
     </row>
     <row r="4">
@@ -1496,13 +1496,13 @@
         <v>26</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2"/>
     </row>
@@ -1514,13 +1514,13 @@
         <v>27</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3"/>
     </row>
@@ -1596,10 +1596,10 @@
         <v>29</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="E2" t="n">
         <v>7.4</v>
@@ -1611,10 +1611,10 @@
         <v>9.6</v>
       </c>
       <c r="H2" t="n">
-        <v>9.8</v>
+        <v>9.2</v>
       </c>
       <c r="I2" t="n">
-        <v>6.9</v>
+        <v>6.73333333333333</v>
       </c>
       <c r="J2" t="n">
         <v>5.32454800605774</v>
@@ -1643,10 +1643,10 @@
         <v>9.8</v>
       </c>
       <c r="H3" t="n">
-        <v>8.4</v>
+        <v>8.2</v>
       </c>
       <c r="I3" t="n">
-        <v>7.23333333333333</v>
+        <v>7.2</v>
       </c>
       <c r="J3" t="n">
         <v>2212.35846686363</v>
@@ -1660,28 +1660,28 @@
         <v>31</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>12.2</v>
       </c>
       <c r="D4" t="n">
-        <v>11</v>
+        <v>12.2</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>8</v>
+        <v>15.2</v>
       </c>
       <c r="H4" t="n">
-        <v>8.2</v>
+        <v>15</v>
       </c>
       <c r="I4" t="n">
-        <v>6.43333333333333</v>
+        <v>10.2666666666667</v>
       </c>
       <c r="J4" t="n">
-        <v>0.301527976989746</v>
+        <v>0.00000596046447753906</v>
       </c>
     </row>
     <row r="5">
@@ -1692,28 +1692,28 @@
         <v>32</v>
       </c>
       <c r="C5" t="n">
-        <v>12.6</v>
+        <v>6.2</v>
       </c>
       <c r="D5" t="n">
-        <v>13.4</v>
+        <v>7.6</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>11.4</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>10.2</v>
       </c>
       <c r="G5" t="n">
-        <v>15.2</v>
+        <v>3.6</v>
       </c>
       <c r="H5" t="n">
-        <v>13.2</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>10.2333333333333</v>
+        <v>7.33333333333333</v>
       </c>
       <c r="J5" t="n">
-        <v>0.00000596046447753906</v>
+        <v>0.00562310218811035</v>
       </c>
     </row>
     <row r="6">
@@ -1724,28 +1724,28 @@
         <v>33</v>
       </c>
       <c r="C6" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="D6" t="n">
-        <v>7</v>
+        <v>11.8</v>
       </c>
       <c r="E6" t="n">
-        <v>11.4</v>
+        <v>3</v>
       </c>
       <c r="F6" t="n">
-        <v>10.2</v>
+        <v>3.4</v>
       </c>
       <c r="G6" t="n">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="H6" t="n">
-        <v>2.6</v>
+        <v>8</v>
       </c>
       <c r="I6" t="n">
-        <v>6.9</v>
+        <v>6.73333333333333</v>
       </c>
       <c r="J6" t="n">
-        <v>0.00562310218811035</v>
+        <v>0.301527976989746</v>
       </c>
     </row>
     <row r="7">
@@ -1756,28 +1756,28 @@
         <v>34</v>
       </c>
       <c r="C7" t="n">
-        <v>3.6</v>
+        <v>9.6</v>
       </c>
       <c r="D7" t="n">
-        <v>5.8</v>
+        <v>8.4</v>
       </c>
       <c r="E7" t="n">
-        <v>1.8</v>
+        <v>7.4</v>
       </c>
       <c r="F7" t="n">
-        <v>3.4</v>
+        <v>5.2</v>
       </c>
       <c r="G7" t="n">
-        <v>4.8</v>
+        <v>7.8</v>
       </c>
       <c r="H7" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="I7" t="n">
-        <v>4.13333333333333</v>
+        <v>7.33333333333333</v>
       </c>
       <c r="J7" t="n">
-        <v>0.153346061706543</v>
+        <v>375.389167070389</v>
       </c>
     </row>
     <row r="8">
@@ -1788,28 +1788,28 @@
         <v>35</v>
       </c>
       <c r="C8" t="n">
-        <v>10.6</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>9.4</v>
+        <v>6.4</v>
       </c>
       <c r="E8" t="n">
-        <v>7.4</v>
+        <v>1.8</v>
       </c>
       <c r="F8" t="n">
-        <v>5.2</v>
+        <v>3.4</v>
       </c>
       <c r="G8" t="n">
-        <v>7.8</v>
+        <v>4.8</v>
       </c>
       <c r="H8" t="n">
-        <v>6.6</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>7.83333333333333</v>
+        <v>4.23333333333333</v>
       </c>
       <c r="J8" t="n">
-        <v>375.389167070389</v>
+        <v>0.153346061706543</v>
       </c>
     </row>
     <row r="9">
@@ -1820,28 +1820,28 @@
         <v>36</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5.2</v>
       </c>
       <c r="D9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E9" t="n">
+        <v>9.8</v>
+      </c>
+      <c r="F9" t="n">
         <v>7.8</v>
       </c>
-      <c r="E9" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="F9" t="n">
-        <v>8.4</v>
-      </c>
       <c r="G9" t="n">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="H9" t="n">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>5.86666666666667</v>
+        <v>5</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0133090019226074</v>
+        <v>0.266166925430298</v>
       </c>
     </row>
     <row r="10">
@@ -1852,28 +1852,28 @@
         <v>38</v>
       </c>
       <c r="C10" t="n">
-        <v>5.4</v>
+        <v>12.4</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E10" t="n">
-        <v>9.8</v>
+        <v>9.2</v>
       </c>
       <c r="F10" t="n">
-        <v>7.8</v>
+        <v>10</v>
       </c>
       <c r="G10" t="n">
-        <v>3.4</v>
+        <v>11.8</v>
       </c>
       <c r="H10" t="n">
-        <v>2.6</v>
+        <v>12.6</v>
       </c>
       <c r="I10" t="n">
-        <v>5.16666666666667</v>
+        <v>10.8333333333333</v>
       </c>
       <c r="J10" t="n">
-        <v>0.266166925430298</v>
+        <v>2.07393884658813</v>
       </c>
     </row>
     <row r="11">
@@ -1884,10 +1884,10 @@
         <v>40</v>
       </c>
       <c r="C11" t="n">
-        <v>10.2</v>
+        <v>10.8</v>
       </c>
       <c r="D11" t="n">
-        <v>9</v>
+        <v>10.4</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1899,10 +1899,10 @@
         <v>12.2</v>
       </c>
       <c r="H11" t="n">
-        <v>13.6</v>
+        <v>13.2</v>
       </c>
       <c r="I11" t="n">
-        <v>11.7666666666667</v>
+        <v>12.0333333333333</v>
       </c>
       <c r="J11" t="n">
         <v>0.127756834030151</v>
@@ -1916,28 +1916,28 @@
         <v>42</v>
       </c>
       <c r="C12" t="n">
-        <v>12.8</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>10.6</v>
+        <v>8.4</v>
       </c>
       <c r="E12" t="n">
-        <v>9.2</v>
+        <v>8.6</v>
       </c>
       <c r="F12" t="n">
-        <v>10</v>
+        <v>8.4</v>
       </c>
       <c r="G12" t="n">
-        <v>11.8</v>
+        <v>2.6</v>
       </c>
       <c r="H12" t="n">
-        <v>13</v>
+        <v>3.6</v>
       </c>
       <c r="I12" t="n">
-        <v>11.2333333333333</v>
+        <v>6.1</v>
       </c>
       <c r="J12" t="n">
-        <v>2.07393884658813</v>
+        <v>0.0133090019226074</v>
       </c>
     </row>
     <row r="13">
@@ -1951,7 +1951,7 @@
         <v>11.2</v>
       </c>
       <c r="D13" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="E13" t="n">
         <v>7.8</v>
@@ -1963,10 +1963,10 @@
         <v>13.8</v>
       </c>
       <c r="H13" t="n">
-        <v>10.6</v>
+        <v>10.4</v>
       </c>
       <c r="I13" t="n">
-        <v>9.63333333333333</v>
+        <v>9.5</v>
       </c>
       <c r="J13" t="n">
         <v>7.49671006202698</v>
@@ -1983,7 +1983,7 @@
         <v>8.8</v>
       </c>
       <c r="D14" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="E14" t="n">
         <v>9.8</v>
@@ -1995,10 +1995,10 @@
         <v>5.4</v>
       </c>
       <c r="H14" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="I14" t="n">
-        <v>7.2</v>
+        <v>7.23333333333333</v>
       </c>
       <c r="J14" t="n">
         <v>28.4437370300293</v>
@@ -2012,10 +2012,10 @@
         <v>48</v>
       </c>
       <c r="C15" t="n">
-        <v>11.4</v>
+        <v>11.8</v>
       </c>
       <c r="D15" t="n">
-        <v>13.6</v>
+        <v>14</v>
       </c>
       <c r="E15" t="n">
         <v>8.4</v>
@@ -2027,10 +2027,10 @@
         <v>2.6</v>
       </c>
       <c r="H15" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="I15" t="n">
-        <v>8.9</v>
+        <v>9.06666666666667</v>
       </c>
       <c r="J15" t="n">
         <v>21.9545934200286</v>
@@ -2044,10 +2044,10 @@
         <v>50</v>
       </c>
       <c r="C16" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="D16" t="n">
-        <v>12.8</v>
+        <v>12.4</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -2059,10 +2059,10 @@
         <v>9.6</v>
       </c>
       <c r="H16" t="n">
-        <v>10.6</v>
+        <v>10.8</v>
       </c>
       <c r="I16" t="n">
-        <v>12.5</v>
+        <v>12.3666666666667</v>
       </c>
       <c r="J16" t="n">
         <v>0.00526309013366699</v>
@@ -2091,10 +2091,10 @@
         <v>15.8</v>
       </c>
       <c r="H17" t="n">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="I17" t="n">
-        <v>14.0666666666667</v>
+        <v>14.0333333333333</v>
       </c>
       <c r="J17" t="n">
         <v>1785.94958114624</v>
@@ -2154,10 +2154,10 @@
         <v>29</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -2172,7 +2172,7 @@
         <v>10</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J2"/>
     </row>
@@ -2202,7 +2202,7 @@
         <v>9</v>
       </c>
       <c r="I3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J3"/>
     </row>
@@ -2214,25 +2214,25 @@
         <v>31</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D4" t="n">
+        <v>13</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>15</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15</v>
+      </c>
+      <c r="I4" t="n">
         <v>12</v>
-      </c>
-      <c r="E4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
-      </c>
-      <c r="G4" t="n">
-        <v>8</v>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-      <c r="I4" t="n">
-        <v>4</v>
       </c>
       <c r="J4"/>
     </row>
@@ -2244,25 +2244,25 @@
         <v>32</v>
       </c>
       <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7</v>
+      </c>
+      <c r="E5" t="n">
         <v>14</v>
       </c>
-      <c r="D5" t="n">
-        <v>14</v>
-      </c>
-      <c r="E5" t="n">
-        <v>3</v>
-      </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G5" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H5" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J5"/>
     </row>
@@ -2274,25 +2274,25 @@
         <v>33</v>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E6" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
+        <v>8</v>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+      <c r="I6" t="n">
         <v>4</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5</v>
       </c>
       <c r="J6"/>
     </row>
@@ -2304,25 +2304,25 @@
         <v>34</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J7"/>
     </row>
@@ -2334,25 +2334,25 @@
         <v>35</v>
       </c>
       <c r="C8" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J8"/>
     </row>
@@ -2364,25 +2364,25 @@
         <v>36</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J9"/>
     </row>
@@ -2394,25 +2394,25 @@
         <v>38</v>
       </c>
       <c r="C10" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E10" t="n">
+        <v>11</v>
+      </c>
+      <c r="F10" t="n">
+        <v>11</v>
+      </c>
+      <c r="G10" t="n">
         <v>12</v>
       </c>
-      <c r="F10" t="n">
-        <v>7</v>
-      </c>
-      <c r="G10" t="n">
-        <v>3</v>
-      </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J10"/>
     </row>
@@ -2424,10 +2424,10 @@
         <v>40</v>
       </c>
       <c r="C11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -2439,7 +2439,7 @@
         <v>13</v>
       </c>
       <c r="H11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I11" t="n">
         <v>14</v>
@@ -2454,25 +2454,25 @@
         <v>42</v>
       </c>
       <c r="C12" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E12" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F12" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G12" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="J12"/>
     </row>
@@ -2487,7 +2487,7 @@
         <v>12</v>
       </c>
       <c r="D13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
@@ -2529,7 +2529,7 @@
         <v>6</v>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I14" t="n">
         <v>7</v>
@@ -2559,7 +2559,7 @@
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I15" t="n">
         <v>10</v>
@@ -2577,7 +2577,7 @@
         <v>9</v>
       </c>
       <c r="D16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -2589,7 +2589,7 @@
         <v>9</v>
       </c>
       <c r="H16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I16" t="n">
         <v>15</v>
@@ -2677,7 +2677,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -2715,7 +2715,7 @@
         <v>6.4</v>
       </c>
       <c r="D3" t="n">
-        <v>9.2</v>
+        <v>8.4</v>
       </c>
       <c r="E3" t="n">
         <v>5.4</v>
@@ -2730,7 +2730,7 @@
         <v>6</v>
       </c>
       <c r="I3" t="n">
-        <v>6.33333333333333</v>
+        <v>6.2</v>
       </c>
       <c r="J3" t="s">
         <v>55</v>
@@ -2776,7 +2776,7 @@
         <v>58</v>
       </c>
       <c r="C5" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -2794,7 +2794,7 @@
         <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>3.86666666666667</v>
+        <v>3.83333333333333</v>
       </c>
       <c r="J5" t="s">
         <v>59</v>
@@ -2808,10 +2808,10 @@
         <v>60</v>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="D6" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="E6" t="n">
         <v>11.8</v>
@@ -2823,7 +2823,7 @@
         <v>10</v>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="I6" t="n">
         <v>9.8</v>
@@ -2872,10 +2872,10 @@
         <v>64</v>
       </c>
       <c r="C8" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="D8" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="E8" t="n">
         <v>6.8</v>
@@ -2890,7 +2890,7 @@
         <v>6.4</v>
       </c>
       <c r="I8" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="J8" t="s">
         <v>65</v>
@@ -2907,7 +2907,7 @@
         <v>9.8</v>
       </c>
       <c r="D9" t="n">
-        <v>10</v>
+        <v>10.4</v>
       </c>
       <c r="E9" t="n">
         <v>11</v>
@@ -2922,7 +2922,7 @@
         <v>10.6</v>
       </c>
       <c r="I9" t="n">
-        <v>10.4</v>
+        <v>10.4666666666667</v>
       </c>
       <c r="J9" t="s">
         <v>67</v>
@@ -2951,10 +2951,10 @@
         <v>9.6</v>
       </c>
       <c r="H10" t="n">
-        <v>11</v>
+        <v>11.4</v>
       </c>
       <c r="I10" t="n">
-        <v>9.06666666666667</v>
+        <v>9.13333333333333</v>
       </c>
       <c r="J10" t="s">
         <v>69</v>
@@ -2968,7 +2968,7 @@
         <v>70</v>
       </c>
       <c r="C11" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="D11" t="n">
         <v>12.4</v>
@@ -2986,7 +2986,7 @@
         <v>7.4</v>
       </c>
       <c r="I11" t="n">
-        <v>8.7</v>
+        <v>8.66666666666667</v>
       </c>
       <c r="J11" t="s">
         <v>71</v>
@@ -3003,7 +3003,7 @@
         <v>8.6</v>
       </c>
       <c r="D12" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="E12" t="n">
         <v>8.6</v>
@@ -3018,7 +3018,7 @@
         <v>4.8</v>
       </c>
       <c r="I12" t="n">
-        <v>6.93333333333333</v>
+        <v>6.9</v>
       </c>
       <c r="J12" t="s">
         <v>73</v>
@@ -3035,7 +3035,7 @@
         <v>10</v>
       </c>
       <c r="D13" t="n">
-        <v>10.4</v>
+        <v>10.2</v>
       </c>
       <c r="E13" t="n">
         <v>12</v>
@@ -3047,10 +3047,10 @@
         <v>11</v>
       </c>
       <c r="H13" t="n">
-        <v>11</v>
+        <v>11.6</v>
       </c>
       <c r="I13" t="n">
-        <v>10.8666666666667</v>
+        <v>10.9333333333333</v>
       </c>
       <c r="J13" t="s">
         <v>75</v>
@@ -3067,7 +3067,7 @@
         <v>11.2</v>
       </c>
       <c r="D14" t="n">
-        <v>10.2</v>
+        <v>10.4</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -3079,10 +3079,10 @@
         <v>10.6</v>
       </c>
       <c r="H14" t="n">
-        <v>11.2</v>
+        <v>10.6</v>
       </c>
       <c r="I14" t="n">
-        <v>10.5333333333333</v>
+        <v>10.4666666666667</v>
       </c>
       <c r="J14" t="s">
         <v>77</v>
@@ -3171,7 +3171,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -3204,10 +3204,10 @@
         <v>54</v>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -3222,7 +3222,7 @@
         <v>6</v>
       </c>
       <c r="I3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J3"/>
     </row>
@@ -3387,7 +3387,7 @@
         <v>9</v>
       </c>
       <c r="D9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="n">
         <v>12</v>
@@ -3417,7 +3417,7 @@
         <v>10</v>
       </c>
       <c r="D10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -3429,7 +3429,7 @@
         <v>10</v>
       </c>
       <c r="H10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I10" t="n">
         <v>9</v>
@@ -3477,7 +3477,7 @@
         <v>8</v>
       </c>
       <c r="D12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -3507,7 +3507,7 @@
         <v>10</v>
       </c>
       <c r="D13" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E13" t="n">
         <v>14</v>
@@ -3519,7 +3519,7 @@
         <v>13</v>
       </c>
       <c r="H13" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I13" t="n">
         <v>14</v>
@@ -3549,10 +3549,10 @@
         <v>12</v>
       </c>
       <c r="H14" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J14"/>
     </row>
@@ -3579,7 +3579,7 @@
         <v>14</v>
       </c>
       <c r="H15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I15" t="n">
         <v>13</v>
@@ -3634,7 +3634,7 @@
         <v>80</v>
       </c>
       <c r="C2" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="D2" t="n">
         <v>3.2</v>
@@ -3644,7 +3644,7 @@
         <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2"/>
     </row>
@@ -3666,7 +3666,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3"/>
     </row>
@@ -3678,7 +3678,7 @@
         <v>82</v>
       </c>
       <c r="C4" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="D4" t="n">
         <v>3.2</v>
